--- a/input/membership_mapping.xlsx
+++ b/input/membership_mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12600" windowHeight="10546"/>
+    <workbookView windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -396,10 +396,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -432,9 +432,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -446,8 +483,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -461,6 +499,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -469,15 +521,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,6 +532,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -500,62 +553,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -582,7 +582,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,7 +600,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,7 +612,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,25 +738,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,115 +756,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,6 +794,24 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -816,16 +834,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -857,176 +875,158 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1320,9 +1320,9 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G107" sqref="G107"/>
+      <selection pane="bottomLeft" activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4333333333333" defaultRowHeight="15" customHeight="1" outlineLevelCol="6"/>
@@ -1334,7 +1334,7 @@
     <col min="7" max="7" width="10.7083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.65" spans="1:7">
+    <row r="1" ht="14.25" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="14.65" spans="1:3">
+    <row r="2" ht="14.25" spans="1:3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="14.65" spans="1:4">
+    <row r="3" ht="14.25" spans="1:4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="14.65" spans="1:4">
+    <row r="4" ht="14.25" spans="1:4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="14.65" spans="1:6">
+    <row r="5" ht="14.25" spans="1:6">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" ht="14.65" spans="1:6">
+    <row r="6" ht="14.25" spans="1:6">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" ht="14.65" spans="1:4">
+    <row r="7" ht="14.25" spans="1:4">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" ht="14.65" spans="1:4">
+    <row r="8" ht="14.25" spans="1:4">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" ht="14.65" spans="1:4">
+    <row r="9" ht="14.25" spans="1:4">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" ht="14.65" spans="1:3">
+    <row r="10" ht="14.25" spans="1:3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" ht="14.65" spans="1:3">
+    <row r="11" ht="14.25" spans="1:3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" ht="14.65" spans="1:4">
+    <row r="12" ht="14.25" spans="1:4">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" ht="14.65" spans="1:4">
+    <row r="13" ht="14.25" spans="1:4">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" ht="14.65" spans="1:3">
+    <row r="14" ht="14.25" spans="1:3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" ht="14.65" spans="1:7">
+    <row r="15" ht="14.25" spans="1:7">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="14.65" spans="1:7">
+    <row r="16" ht="14.25" spans="1:7">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="14.65" spans="1:3">
+    <row r="17" ht="14.25" spans="1:3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" ht="14.65" spans="1:4">
+    <row r="18" ht="14.25" spans="1:4">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" ht="14.65" spans="1:4">
+    <row r="19" ht="14.25" spans="1:4">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" ht="14.65" spans="1:4">
+    <row r="20" ht="14.25" spans="1:4">
       <c r="A20" s="2">
         <v>19</v>
       </c>
